--- a/database/industries/zeraat/zegoldasht/product/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3404D-14B0-43B3-BC0A-75BF332FD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176ED90-1D2E-4083-BDE8-FE5D4D68D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -593,12 +593,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -642,7 +642,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -708,7 +708,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -732,7 +732,7 @@
         <v>51748</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
         <v>38295</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
@@ -826,7 +826,7 @@
         <v>91847</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -836,7 +836,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -846,7 +846,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -856,7 +856,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -888,7 +888,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -912,7 +912,7 @@
         <v>49767</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
@@ -936,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -960,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
@@ -984,7 +984,7 @@
         <v>43828</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>95548</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>2994598</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>81691</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>163736</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>3240025</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1334,7 +1334,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1366,7 +1366,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>60172363</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1863900</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>83838198</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1530,7 +1530,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3123661</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>-3198990</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>34</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>107297</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>31968</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>35</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>21</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>17</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1890,7 +1890,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1900,7 +1900,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>36</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>-2434098</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>-191837</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>-2625935</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2046,7 +2046,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2056,7 +2056,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2088,7 +2088,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>15</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
         <v>17</v>
       </c>

--- a/database/industries/zeraat/zegoldasht/product/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B176ED90-1D2E-4083-BDE8-FE5D4D68D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF7688C-5C34-47B5-BFE1-947ECB880A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,16 +49,19 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>شیر</t>
   </si>
   <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
   </si>
   <si>
     <t>کود حیوانی</t>
@@ -593,12 +593,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -642,7 +642,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -708,7 +708,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -716,23 +716,23 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
+      <c r="E10" s="9">
+        <v>38033000</v>
+      </c>
+      <c r="F10" s="9">
+        <v>39769</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44730000</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="9">
-        <v>51748</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -740,28 +740,28 @@
         <v>13</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>38625613</v>
-      </c>
-      <c r="F11" s="11">
-        <v>38033000</v>
-      </c>
-      <c r="G11" s="11">
-        <v>39769</v>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="11">
-        <v>44730000</v>
+        <v>51748</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
@@ -773,14 +773,14 @@
       <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
+      <c r="H12" s="9">
+        <v>38295</v>
       </c>
       <c r="I12" s="9">
-        <v>38295</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51480</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -789,44 +789,44 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1544</v>
+        <v>1526</v>
       </c>
       <c r="F13" s="11">
-        <v>1526</v>
+        <v>1603</v>
       </c>
       <c r="G13" s="11">
-        <v>1603</v>
+        <v>1876</v>
       </c>
       <c r="H13" s="11">
-        <v>1876</v>
+        <v>1804</v>
       </c>
       <c r="I13" s="11">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>38627157</v>
+        <v>38034526</v>
       </c>
       <c r="F14" s="13">
-        <v>38034526</v>
+        <v>41372</v>
       </c>
       <c r="G14" s="13">
-        <v>41372</v>
+        <v>44731876</v>
       </c>
       <c r="H14" s="13">
-        <v>44731876</v>
+        <v>91847</v>
       </c>
       <c r="I14" s="13">
-        <v>91847</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110892</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -836,7 +836,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -846,7 +846,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -856,7 +856,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -888,7 +888,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -896,23 +896,23 @@
         <v>11</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>12</v>
+      <c r="E20" s="9">
+        <v>38056</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="9">
-        <v>39767</v>
-      </c>
-      <c r="H20" s="9">
-        <v>44720</v>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="9">
-        <v>49767</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54933860</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
@@ -920,23 +920,23 @@
         <v>13</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>37871103</v>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="11">
-        <v>38056</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>12</v>
+        <v>39767</v>
+      </c>
+      <c r="G21" s="11">
+        <v>44720</v>
+      </c>
+      <c r="H21" s="11">
+        <v>49767</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
@@ -944,8 +944,8 @@
         <v>20</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -953,19 +953,19 @@
       <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
+      <c r="H22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
@@ -977,21 +977,21 @@
       <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
+      <c r="H23" s="11">
+        <v>43828</v>
       </c>
       <c r="I23" s="11">
-        <v>43828</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40697</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
+      <c r="E24" s="9">
+        <v>0</v>
       </c>
       <c r="F24" s="9">
         <v>0</v>
@@ -999,14 +999,14 @@
       <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
+      <c r="H24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
@@ -1015,22 +1015,22 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>1332</v>
+        <v>1370</v>
       </c>
       <c r="F25" s="11">
-        <v>1370</v>
+        <v>1444</v>
       </c>
       <c r="G25" s="11">
-        <v>1444</v>
+        <v>1738</v>
       </c>
       <c r="H25" s="11">
-        <v>1738</v>
+        <v>1953</v>
       </c>
       <c r="I25" s="11">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1038,8 +1038,8 @@
         <v>23</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
+      <c r="E26" s="9">
+        <v>0</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>
@@ -1047,36 +1047,36 @@
       <c r="G26" s="9">
         <v>0</v>
       </c>
-      <c r="H26" s="9">
-        <v>0</v>
+      <c r="H26" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>37872435</v>
+        <v>39426</v>
       </c>
       <c r="F27" s="15">
-        <v>39426</v>
+        <v>41211</v>
       </c>
       <c r="G27" s="15">
-        <v>41211</v>
+        <v>46458</v>
       </c>
       <c r="H27" s="15">
-        <v>46458</v>
+        <v>95548</v>
       </c>
       <c r="I27" s="15">
-        <v>95548</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54977195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
@@ -1147,22 +1147,22 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>510473</v>
+        <v>704708</v>
       </c>
       <c r="F33" s="9">
-        <v>704708</v>
+        <v>1018231</v>
       </c>
       <c r="G33" s="9">
-        <v>1018231</v>
+        <v>1716097</v>
       </c>
       <c r="H33" s="9">
-        <v>1716097</v>
+        <v>2994598</v>
       </c>
       <c r="I33" s="9">
-        <v>2994598</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6247243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1170,8 @@
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>12</v>
+      <c r="E34" s="11">
+        <v>0</v>
       </c>
       <c r="F34" s="11">
         <v>0</v>
@@ -1179,14 +1179,14 @@
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="H34" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1203,14 +1203,14 @@
       <c r="G35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>12</v>
+      <c r="H35" s="9">
+        <v>81691</v>
       </c>
       <c r="I35" s="9">
-        <v>81691</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68369</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1218,8 +1218,8 @@
         <v>25</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
+      <c r="E36" s="11">
+        <v>0</v>
       </c>
       <c r="F36" s="11">
         <v>0</v>
@@ -1227,14 +1227,14 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1243,22 +1243,22 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>45252</v>
+        <v>63672</v>
       </c>
       <c r="F37" s="9">
-        <v>63672</v>
+        <v>112951</v>
       </c>
       <c r="G37" s="9">
-        <v>112951</v>
+        <v>129319</v>
       </c>
       <c r="H37" s="9">
-        <v>129319</v>
+        <v>163736</v>
       </c>
       <c r="I37" s="9">
-        <v>163736</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>308756</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1266,45 +1266,45 @@
         <v>25</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
+      <c r="E38" s="11">
+        <v>37915</v>
       </c>
       <c r="F38" s="11">
-        <v>37915</v>
+        <v>50891</v>
       </c>
       <c r="G38" s="11">
-        <v>50891</v>
-      </c>
-      <c r="H38" s="11">
         <v>63245</v>
       </c>
+      <c r="H38" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I38" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>555725</v>
+        <v>806295</v>
       </c>
       <c r="F39" s="13">
-        <v>806295</v>
+        <v>1182073</v>
       </c>
       <c r="G39" s="13">
-        <v>1182073</v>
+        <v>1908661</v>
       </c>
       <c r="H39" s="13">
-        <v>1908661</v>
+        <v>3240025</v>
       </c>
       <c r="I39" s="13">
-        <v>3240025</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6624368</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1324,7 +1324,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1334,7 +1334,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1366,7 +1366,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1375,22 +1375,22 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>13479</v>
+        <v>18517658</v>
       </c>
       <c r="F45" s="9">
-        <v>18517658</v>
+        <v>25604924</v>
       </c>
       <c r="G45" s="9">
-        <v>25604924</v>
+        <v>38374262</v>
       </c>
       <c r="H45" s="9">
-        <v>38374262</v>
+        <v>60172363</v>
       </c>
       <c r="I45" s="9">
-        <v>60172363</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113723</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1398,8 @@
         <v>28</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>12</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <v>0</v>
@@ -1407,14 +1407,14 @@
       <c r="G46" s="11">
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
+      <c r="H46" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1431,14 +1431,14 @@
       <c r="G47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="9" t="s">
-        <v>12</v>
+      <c r="H47" s="9">
+        <v>1863900</v>
       </c>
       <c r="I47" s="9">
-        <v>1863900</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1679952</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -1446,8 +1446,8 @@
         <v>28</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>12</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
@@ -1455,14 +1455,14 @@
       <c r="G48" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
+      <c r="H48" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>15</v>
       </c>
@@ -1471,22 +1471,22 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>33972973</v>
+        <v>46475912</v>
       </c>
       <c r="F49" s="9">
-        <v>46475912</v>
+        <v>78220914</v>
       </c>
       <c r="G49" s="9">
-        <v>78220914</v>
+        <v>74406789</v>
       </c>
       <c r="H49" s="9">
-        <v>74406789</v>
+        <v>83838198</v>
       </c>
       <c r="I49" s="9">
-        <v>83838198</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117041698</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>22</v>
       </c>
@@ -1494,8 +1494,8 @@
         <v>30</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>12</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
@@ -1503,14 +1503,14 @@
       <c r="G50" s="11">
         <v>0</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
+      <c r="H50" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1530,7 +1530,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>32</v>
       </c>
@@ -1589,14 +1589,14 @@
       <c r="G56" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>12</v>
+      <c r="H56" s="9">
+        <v>3123661</v>
       </c>
       <c r="I56" s="9">
-        <v>3123661</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6662826</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>33</v>
       </c>
@@ -1613,14 +1613,14 @@
       <c r="G57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>12</v>
+      <c r="H57" s="11">
+        <v>-3198990</v>
       </c>
       <c r="I57" s="11">
-        <v>-3198990</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6597688</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>34</v>
       </c>
@@ -1637,14 +1637,14 @@
       <c r="G58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>12</v>
+      <c r="H58" s="9">
+        <v>107297</v>
       </c>
       <c r="I58" s="9">
-        <v>107297</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>186247</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="H59" s="15">
-        <v>0</v>
+        <v>31968</v>
       </c>
       <c r="I59" s="15">
-        <v>31968</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251385</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>35</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>10</v>
       </c>
@@ -1736,23 +1736,23 @@
         <v>25</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>12</v>
+      <c r="E65" s="9">
+        <v>-517876</v>
       </c>
       <c r="F65" s="9">
-        <v>-517876</v>
+        <v>-738948</v>
       </c>
       <c r="G65" s="9">
-        <v>-738948</v>
-      </c>
-      <c r="H65" s="9">
         <v>-1308169</v>
       </c>
+      <c r="H65" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I65" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>19</v>
       </c>
@@ -1760,8 +1760,8 @@
         <v>25</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>12</v>
+      <c r="E66" s="11">
+        <v>0</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -1769,14 +1769,14 @@
       <c r="G66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
+      <c r="H66" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>21</v>
       </c>
@@ -1784,8 +1784,8 @@
         <v>25</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>12</v>
+      <c r="E67" s="9">
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -1793,14 +1793,14 @@
       <c r="G67" s="9">
         <v>0</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="H67" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>15</v>
       </c>
@@ -1808,23 +1808,23 @@
         <v>25</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>12</v>
+      <c r="E68" s="11">
+        <v>-36083</v>
       </c>
       <c r="F68" s="11">
-        <v>-36083</v>
+        <v>-71417</v>
       </c>
       <c r="G68" s="11">
-        <v>-71417</v>
-      </c>
-      <c r="H68" s="11">
         <v>-138775</v>
       </c>
+      <c r="H68" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I68" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>22</v>
       </c>
@@ -1832,8 +1832,8 @@
         <v>25</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>12</v>
+      <c r="E69" s="9">
+        <v>0</v>
       </c>
       <c r="F69" s="9">
         <v>0</v>
@@ -1841,36 +1841,36 @@
       <c r="G69" s="9">
         <v>0</v>
       </c>
-      <c r="H69" s="9">
-        <v>0</v>
+      <c r="H69" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>0</v>
+        <v>-553959</v>
       </c>
       <c r="F70" s="15">
-        <v>-553959</v>
+        <v>-810365</v>
       </c>
       <c r="G70" s="15">
-        <v>-810365</v>
+        <v>-1446944</v>
       </c>
       <c r="H70" s="15">
-        <v>-1446944</v>
+        <v>0</v>
       </c>
       <c r="I70" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1890,7 +1890,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1900,7 +1900,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>36</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1932,7 +1932,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>10</v>
       </c>
@@ -1949,14 +1949,14 @@
       <c r="G76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>12</v>
+      <c r="H76" s="9">
+        <v>-2434098</v>
       </c>
       <c r="I76" s="9">
-        <v>-2434098</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5909215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>14</v>
       </c>
@@ -1973,14 +1973,14 @@
       <c r="G77" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="11" t="s">
-        <v>12</v>
+      <c r="H77" s="11">
+        <v>0</v>
       </c>
       <c r="I77" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>15</v>
       </c>
@@ -1997,14 +1997,14 @@
       <c r="G78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
+      <c r="H78" s="9">
+        <v>-191837</v>
       </c>
       <c r="I78" s="9">
-        <v>-191837</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
@@ -2020,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="H79" s="15">
-        <v>0</v>
+        <v>-2625935</v>
       </c>
       <c r="I79" s="15">
-        <v>-2625935</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5909215</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2036,7 +2036,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2046,7 +2046,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2056,7 +2056,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2088,7 +2088,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>10</v>
       </c>
@@ -2096,23 +2096,23 @@
         <v>25</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>12</v>
+      <c r="E85" s="9">
+        <v>186832</v>
       </c>
       <c r="F85" s="9">
-        <v>186832</v>
+        <v>279283</v>
       </c>
       <c r="G85" s="9">
-        <v>279283</v>
-      </c>
-      <c r="H85" s="9">
         <v>407928</v>
       </c>
+      <c r="H85" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I85" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>19</v>
       </c>
@@ -2123,20 +2123,20 @@
       <c r="E86" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>12</v>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <v>0</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
+      <c r="H86" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
@@ -2147,20 +2147,20 @@
       <c r="E87" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>12</v>
+      <c r="F87" s="9">
+        <v>0</v>
       </c>
       <c r="G87" s="9">
         <v>0</v>
       </c>
-      <c r="H87" s="9">
-        <v>0</v>
+      <c r="H87" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I87" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>15</v>
       </c>
@@ -2168,23 +2168,23 @@
         <v>25</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>12</v>
+      <c r="E88" s="11">
+        <v>27589</v>
       </c>
       <c r="F88" s="11">
-        <v>27589</v>
+        <v>41534</v>
       </c>
       <c r="G88" s="11">
-        <v>41534</v>
-      </c>
-      <c r="H88" s="11">
         <v>-9456</v>
       </c>
+      <c r="H88" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I88" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
@@ -2192,39 +2192,39 @@
         <v>25</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>12</v>
+      <c r="E89" s="9">
+        <v>37915</v>
       </c>
       <c r="F89" s="9">
-        <v>37915</v>
+        <v>50891</v>
       </c>
       <c r="G89" s="9">
-        <v>50891</v>
-      </c>
-      <c r="H89" s="9">
         <v>63245</v>
       </c>
+      <c r="H89" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I89" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>0</v>
+        <v>252336</v>
       </c>
       <c r="F90" s="15">
-        <v>252336</v>
+        <v>371708</v>
       </c>
       <c r="G90" s="15">
-        <v>371708</v>
+        <v>461717</v>
       </c>
       <c r="H90" s="15">
-        <v>461717</v>
+        <v>0</v>
       </c>
       <c r="I90" s="15">
         <v>0</v>
